--- a/ONCHO/Impact Assessments/Guinea Conakry/gn_oncho_pre_stop_202311_2_participant.xlsx
+++ b/ONCHO/Impact Assessments/Guinea Conakry/gn_oncho_pre_stop_202311_2_participant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Guinea Conakry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7160966A-53C0-4D24-9CB9-2D79389E00DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A03B09D-8D4A-4DED-84E9-07D438D387A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
   <si>
     <t>type</t>
   </si>
@@ -871,7 +871,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6:L7"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1194,7 +1194,9 @@
       <c r="E13" s="31"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
-      <c r="H13" s="32"/>
+      <c r="H13" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="I13" s="16"/>
       <c r="J13" s="32" t="s">
         <v>15</v>

--- a/ONCHO/Impact Assessments/Guinea Conakry/gn_oncho_pre_stop_202311_2_participant.xlsx
+++ b/ONCHO/Impact Assessments/Guinea Conakry/gn_oncho_pre_stop_202311_2_participant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Guinea Conakry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A03B09D-8D4A-4DED-84E9-07D438D387A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAFF477-4CF8-47D8-A6E7-8C0DC6AB4259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -238,9 +238,6 @@
     <t>4. Sélectionnez le village/communauté</t>
   </si>
   <si>
-    <t>. &gt;= 20 and . &lt;= 99</t>
-  </si>
-  <si>
     <t>L'âge doit-être compris entre 20 et 99 ans.</t>
   </si>
   <si>
@@ -359,6 +356,9 @@
   </si>
   <si>
     <t>6. Quelle méthode pour entrer le Code unique du participant?</t>
+  </si>
+  <si>
+    <t>. &gt;= 5 and . &lt;= 9</t>
   </si>
 </sst>
 </file>
@@ -871,7 +871,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -943,17 +943,17 @@
         <v>52</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="18" t="s">
@@ -1033,15 +1033,15 @@
         <v>27</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16" t="s">
@@ -1055,20 +1055,20 @@
         <v>14</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>88</v>
-      </c>
       <c r="H7" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
@@ -1079,10 +1079,10 @@
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1">
       <c r="A8" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>93</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>94</v>
       </c>
       <c r="C8" s="18"/>
       <c r="E8" s="16"/>
@@ -1090,7 +1090,7 @@
       <c r="G8" s="18"/>
       <c r="H8" s="16"/>
       <c r="I8" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
@@ -1098,13 +1098,13 @@
     </row>
     <row r="9" spans="1:15" s="28" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="C9" s="30" t="s">
         <v>96</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>97</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
@@ -1121,10 +1121,10 @@
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1">
       <c r="A10" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="27"/>
       <c r="E10" s="16"/>
@@ -1132,7 +1132,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="16"/>
       <c r="I10" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -1140,10 +1140,10 @@
     </row>
     <row r="11" spans="1:15" s="3" customFormat="1">
       <c r="A11" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="27"/>
       <c r="E11" s="16"/>
@@ -1151,7 +1151,7 @@
       <c r="G11" s="18"/>
       <c r="H11" s="16"/>
       <c r="I11" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -1165,7 +1165,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -1188,7 +1188,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="31"/>
@@ -1212,17 +1212,17 @@
         <v>61</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>104</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>105</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>64</v>
@@ -1239,10 +1239,10 @@
         <v>62</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="25"/>
@@ -1262,7 +1262,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1287,14 +1287,14 @@
         <v>23</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="16"/>
       <c r="F17" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>45</v>
@@ -1308,19 +1308,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="18" t="s">
+      <c r="F18" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="G18" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>45</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="22" spans="1:15" s="28" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
